--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ltf</t>
+  </si>
+  <si>
+    <t>Lrp11</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ltf</t>
-  </si>
-  <si>
-    <t>Lrp11</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H2">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I2">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J2">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6215335</v>
+        <v>1.0848515</v>
       </c>
       <c r="N2">
-        <v>1.243067</v>
+        <v>2.169703</v>
       </c>
       <c r="O2">
-        <v>0.1105243274228085</v>
+        <v>0.2186227527895346</v>
       </c>
       <c r="P2">
-        <v>0.08222239860831373</v>
+        <v>0.1768985792936573</v>
       </c>
       <c r="Q2">
-        <v>0.0442749388725</v>
+        <v>0.4502831646131667</v>
       </c>
       <c r="R2">
-        <v>0.17709975549</v>
+        <v>2.701698987679</v>
       </c>
       <c r="S2">
-        <v>0.03905047448597217</v>
+        <v>0.005238861715716545</v>
       </c>
       <c r="T2">
-        <v>0.02195266069178686</v>
+        <v>0.004239024451029381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H3">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I3">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J3">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.280675</v>
       </c>
       <c r="O3">
-        <v>0.194462244254371</v>
+        <v>0.2203773817607929</v>
       </c>
       <c r="P3">
-        <v>0.216999540293749</v>
+        <v>0.267477505734296</v>
       </c>
       <c r="Q3">
-        <v>0.077899627875</v>
+        <v>0.4538970605861111</v>
       </c>
       <c r="R3">
-        <v>0.46739776725</v>
+        <v>4.085073545275</v>
       </c>
       <c r="S3">
-        <v>0.06870743378233929</v>
+        <v>0.005280907927400932</v>
       </c>
       <c r="T3">
-        <v>0.0579369777453893</v>
+        <v>0.006409569208726176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H4">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I4">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J4">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.6381106666666667</v>
+        <v>0.1406063333333333</v>
       </c>
       <c r="N4">
-        <v>1.914332</v>
+        <v>0.421819</v>
       </c>
       <c r="O4">
-        <v>0.1134721656268782</v>
+        <v>0.02833543913888328</v>
       </c>
       <c r="P4">
-        <v>0.1266230772538009</v>
+        <v>0.03439142676166795</v>
       </c>
       <c r="Q4">
-        <v>0.04545581334000001</v>
+        <v>0.05836067400744444</v>
       </c>
       <c r="R4">
-        <v>0.2727348800400001</v>
+        <v>0.525246066067</v>
       </c>
       <c r="S4">
-        <v>0.0400920051902164</v>
+        <v>0.000679002736030949</v>
       </c>
       <c r="T4">
-        <v>0.03380725322724337</v>
+        <v>0.0008241224973688851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H5">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I5">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J5">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.130615</v>
+        <v>1.5365345</v>
       </c>
       <c r="N5">
-        <v>2.26123</v>
+        <v>3.073069</v>
       </c>
       <c r="O5">
-        <v>0.2010518539212105</v>
+        <v>0.3096473592432615</v>
       </c>
       <c r="P5">
-        <v>0.1495685706442833</v>
+        <v>0.2505511308097838</v>
       </c>
       <c r="Q5">
-        <v>0.08053935952500002</v>
+        <v>0.6377606678861667</v>
       </c>
       <c r="R5">
-        <v>0.3221574381000001</v>
+        <v>3.826564007317</v>
       </c>
       <c r="S5">
-        <v>0.07103567580984362</v>
+        <v>0.007420086313129183</v>
       </c>
       <c r="T5">
-        <v>0.03993349910832578</v>
+        <v>0.006003962123249315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H6">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I6">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J6">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.7145593333333333</v>
+        <v>0.3224876666666667</v>
       </c>
       <c r="N6">
-        <v>2.143678</v>
+        <v>0.967463</v>
       </c>
       <c r="O6">
-        <v>0.127066666109481</v>
+        <v>0.06498874862351253</v>
       </c>
       <c r="P6">
-        <v>0.1417931189580874</v>
+        <v>0.07887845950306545</v>
       </c>
       <c r="Q6">
-        <v>0.05090163411</v>
+        <v>0.1338531283732222</v>
       </c>
       <c r="R6">
-        <v>0.30540980466</v>
+        <v>1.204678155359</v>
       </c>
       <c r="S6">
-        <v>0.04489521645260733</v>
+        <v>0.001557326777619572</v>
       </c>
       <c r="T6">
-        <v>0.03785752157079889</v>
+        <v>0.001890166217434477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H7">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I7">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J7">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.425122666666667</v>
+        <v>0.7841693333333334</v>
       </c>
       <c r="N7">
-        <v>4.275368</v>
+        <v>2.352508</v>
       </c>
       <c r="O7">
-        <v>0.2534227426652508</v>
+        <v>0.1580283184440151</v>
       </c>
       <c r="P7">
-        <v>0.2827932942417658</v>
+        <v>0.1918028978975294</v>
       </c>
       <c r="Q7">
-        <v>0.10151861316</v>
+        <v>0.3254807215604444</v>
       </c>
       <c r="R7">
-        <v>0.6091116789600001</v>
+        <v>2.929326494044</v>
       </c>
       <c r="S7">
-        <v>0.08953936728116392</v>
+        <v>0.003786835985421936</v>
       </c>
       <c r="T7">
-        <v>0.0755033341215907</v>
+        <v>0.004596176957510878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H8">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I8">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J8">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6215335</v>
+        <v>1.0848515</v>
       </c>
       <c r="N8">
-        <v>1.243067</v>
+        <v>2.169703</v>
       </c>
       <c r="O8">
-        <v>0.1105243274228085</v>
+        <v>0.2186227527895346</v>
       </c>
       <c r="P8">
-        <v>0.08222239860831373</v>
+        <v>0.1768985792936573</v>
       </c>
       <c r="Q8">
-        <v>0.06523221978116667</v>
+        <v>18.211504106541</v>
       </c>
       <c r="R8">
-        <v>0.391393318687</v>
+        <v>109.269024639246</v>
       </c>
       <c r="S8">
-        <v>0.05753478602338589</v>
+        <v>0.2118834527853953</v>
       </c>
       <c r="T8">
-        <v>0.04851573452710536</v>
+        <v>0.1714454753465413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H9">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I9">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J9">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.280675</v>
       </c>
       <c r="O9">
-        <v>0.194462244254371</v>
+        <v>0.2203773817607929</v>
       </c>
       <c r="P9">
-        <v>0.216999540293749</v>
+        <v>0.267477505734296</v>
       </c>
       <c r="Q9">
-        <v>0.1147729567972222</v>
+        <v>18.35766653615</v>
       </c>
       <c r="R9">
-        <v>1.032956611175</v>
+        <v>165.21899882535</v>
       </c>
       <c r="S9">
-        <v>0.1012296919030492</v>
+        <v>0.2135839932828677</v>
       </c>
       <c r="T9">
-        <v>0.1280416561373694</v>
+        <v>0.2592322012886162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.787094</v>
+      </c>
+      <c r="H10">
+        <v>50.361282</v>
+      </c>
+      <c r="I10">
+        <v>0.9691738397849783</v>
+      </c>
+      <c r="J10">
+        <v>0.9691738397849782</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.1049536666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.314861</v>
-      </c>
-      <c r="I10">
-        <v>0.5205621908314155</v>
-      </c>
-      <c r="J10">
-        <v>0.590054964927766</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.6381106666666667</v>
+        <v>0.1406063333333333</v>
       </c>
       <c r="N10">
-        <v>1.914332</v>
+        <v>0.421819</v>
       </c>
       <c r="O10">
-        <v>0.1134721656268782</v>
+        <v>0.02833543913888328</v>
       </c>
       <c r="P10">
-        <v>0.1266230772538009</v>
+        <v>0.03439142676166795</v>
       </c>
       <c r="Q10">
-        <v>0.06697205420577779</v>
+        <v>2.360371734662</v>
       </c>
       <c r="R10">
-        <v>0.6027484878520001</v>
+        <v>21.243345611958</v>
       </c>
       <c r="S10">
-        <v>0.05906931913711296</v>
+        <v>0.02746196635222506</v>
       </c>
       <c r="T10">
-        <v>0.07471457540803728</v>
+        <v>0.03333127113028959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H11">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I11">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J11">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.130615</v>
+        <v>1.5365345</v>
       </c>
       <c r="N11">
-        <v>2.26123</v>
+        <v>3.073069</v>
       </c>
       <c r="O11">
-        <v>0.2010518539212105</v>
+        <v>0.3096473592432615</v>
       </c>
       <c r="P11">
-        <v>0.1495685706442833</v>
+        <v>0.2505511308097838</v>
       </c>
       <c r="Q11">
-        <v>0.1186621898383333</v>
+        <v>25.793949085743</v>
       </c>
       <c r="R11">
-        <v>0.7119731390300001</v>
+        <v>154.763694514458</v>
       </c>
       <c r="S11">
-        <v>0.104659993547943</v>
+        <v>0.3001021201370704</v>
       </c>
       <c r="T11">
-        <v>0.08825367770580868</v>
+        <v>0.2428276015093865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H12">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I12">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J12">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.7145593333333333</v>
+        <v>0.3224876666666667</v>
       </c>
       <c r="N12">
-        <v>2.143678</v>
+        <v>0.967463</v>
       </c>
       <c r="O12">
-        <v>0.127066666109481</v>
+        <v>0.06498874862351253</v>
       </c>
       <c r="P12">
-        <v>0.1417931189580874</v>
+        <v>0.07887845950306545</v>
       </c>
       <c r="Q12">
-        <v>0.07499562208422222</v>
+        <v>5.413630774174</v>
       </c>
       <c r="R12">
-        <v>0.674960598758</v>
+        <v>48.722676967566</v>
       </c>
       <c r="S12">
-        <v>0.0661461020915954</v>
+        <v>0.06298539504627036</v>
       </c>
       <c r="T12">
-        <v>0.08366573383381279</v>
+        <v>0.07644693947290984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H13">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I13">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J13">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.425122666666667</v>
+        <v>0.7841693333333334</v>
       </c>
       <c r="N13">
-        <v>4.275368</v>
+        <v>2.352508</v>
       </c>
       <c r="O13">
-        <v>0.2534227426652508</v>
+        <v>0.1580283184440151</v>
       </c>
       <c r="P13">
-        <v>0.2827932942417658</v>
+        <v>0.1918028978975294</v>
       </c>
       <c r="Q13">
-        <v>0.1495718493164445</v>
+        <v>13.163924310584</v>
       </c>
       <c r="R13">
-        <v>1.346146643848</v>
+        <v>118.475318795256</v>
       </c>
       <c r="S13">
-        <v>0.131922298128329</v>
+        <v>0.1531569121811495</v>
       </c>
       <c r="T13">
-        <v>0.1668635873156325</v>
+        <v>0.1858903510372347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H14">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I14">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J14">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6215335</v>
+        <v>1.0848515</v>
       </c>
       <c r="N14">
-        <v>1.243067</v>
+        <v>2.169703</v>
       </c>
       <c r="O14">
-        <v>0.1105243274228085</v>
+        <v>0.2186227527895346</v>
       </c>
       <c r="P14">
-        <v>0.08222239860831373</v>
+        <v>0.1768985792936573</v>
       </c>
       <c r="Q14">
-        <v>0.01580393948233333</v>
+        <v>0.1289635301483333</v>
       </c>
       <c r="R14">
-        <v>0.094823636894</v>
+        <v>0.77378118089</v>
       </c>
       <c r="S14">
-        <v>0.01393906691345045</v>
+        <v>0.001500438288422752</v>
       </c>
       <c r="T14">
-        <v>0.01175400338942153</v>
+        <v>0.001214079496086637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H15">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I15">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J15">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.280675</v>
       </c>
       <c r="O15">
-        <v>0.194462244254371</v>
+        <v>0.2203773817607929</v>
       </c>
       <c r="P15">
-        <v>0.216999540293749</v>
+        <v>0.267477505734296</v>
       </c>
       <c r="Q15">
-        <v>0.02780627226111111</v>
+        <v>0.1299985694722222</v>
       </c>
       <c r="R15">
-        <v>0.25025645035</v>
+        <v>1.16998712525</v>
       </c>
       <c r="S15">
-        <v>0.0245251185689825</v>
+        <v>0.001512480550524292</v>
       </c>
       <c r="T15">
-        <v>0.03102090641099028</v>
+        <v>0.001835735236953642</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1188766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.35663</v>
+      </c>
+      <c r="I16">
+        <v>0.006863138759702679</v>
+      </c>
+      <c r="J16">
+        <v>0.006863138759702677</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.02542733333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.076282</v>
-      </c>
-      <c r="I16">
-        <v>0.1261176361664418</v>
-      </c>
-      <c r="J16">
-        <v>0.1429537886070991</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.6381106666666667</v>
+        <v>0.1406063333333333</v>
       </c>
       <c r="N16">
-        <v>1.914332</v>
+        <v>0.421819</v>
       </c>
       <c r="O16">
-        <v>0.1134721656268782</v>
+        <v>0.02833543913888328</v>
       </c>
       <c r="P16">
-        <v>0.1266230772538009</v>
+        <v>0.03439142676166795</v>
       </c>
       <c r="Q16">
-        <v>0.01622545262488889</v>
+        <v>0.01671481221888889</v>
       </c>
       <c r="R16">
-        <v>0.146029073624</v>
+        <v>0.15043330997</v>
       </c>
       <c r="S16">
-        <v>0.01431084129954885</v>
+        <v>0.0001944700506272661</v>
       </c>
       <c r="T16">
-        <v>0.01810124861852024</v>
+        <v>0.0002360331340094793</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H17">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I17">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J17">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.130615</v>
+        <v>1.5365345</v>
       </c>
       <c r="N17">
-        <v>2.26123</v>
+        <v>3.073069</v>
       </c>
       <c r="O17">
-        <v>0.2010518539212105</v>
+        <v>0.3096473592432615</v>
       </c>
       <c r="P17">
-        <v>0.1495685706442833</v>
+        <v>0.2505511308097838</v>
       </c>
       <c r="Q17">
-        <v>0.02874852447666667</v>
+        <v>0.1826580995783334</v>
       </c>
       <c r="R17">
-        <v>0.17249114686</v>
+        <v>1.09594859747</v>
       </c>
       <c r="S17">
-        <v>0.02535618456342383</v>
+        <v>0.002125152793062008</v>
       </c>
       <c r="T17">
-        <v>0.02138139383014885</v>
+        <v>0.001719567177147963</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,55 +1526,55 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H18">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I18">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J18">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.7145593333333333</v>
+        <v>0.3224876666666667</v>
       </c>
       <c r="N18">
-        <v>2.143678</v>
+        <v>0.967463</v>
       </c>
       <c r="O18">
-        <v>0.127066666109481</v>
+        <v>0.06498874862351253</v>
       </c>
       <c r="P18">
-        <v>0.1417931189580874</v>
+        <v>0.07887845950306545</v>
       </c>
       <c r="Q18">
-        <v>0.01816933835511111</v>
+        <v>0.03833625885444444</v>
       </c>
       <c r="R18">
-        <v>0.163524045196</v>
+        <v>0.34502632969</v>
       </c>
       <c r="S18">
-        <v>0.01602534756527826</v>
+        <v>0.000446026799622603</v>
       </c>
       <c r="T18">
-        <v>0.02026986355347568</v>
+        <v>0.0005413538127211265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H19">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I19">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J19">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.425122666666667</v>
+        <v>0.7841693333333334</v>
       </c>
       <c r="N19">
-        <v>4.275368</v>
+        <v>2.352508</v>
       </c>
       <c r="O19">
-        <v>0.2534227426652508</v>
+        <v>0.1580283184440151</v>
       </c>
       <c r="P19">
-        <v>0.2827932942417658</v>
+        <v>0.1918028978975294</v>
       </c>
       <c r="Q19">
-        <v>0.03623706908622223</v>
+        <v>0.0932194364488889</v>
       </c>
       <c r="R19">
-        <v>0.326133621776</v>
+        <v>0.8389749280400001</v>
       </c>
       <c r="S19">
-        <v>0.03196107725575791</v>
+        <v>0.001084570277443758</v>
       </c>
       <c r="T19">
-        <v>0.04042637280454257</v>
+        <v>0.001316369902783829</v>
       </c>
     </row>
   </sheetData>
